--- a/public/import/Job_Position_Template.xlsx
+++ b/public/import/Job_Position_Template.xlsx
@@ -1,36 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\busdev-pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA1D258-6D51-43AA-9582-651D3CE86BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>job_position</t>
   </si>
   <si>
-    <t>BUSINESS process staff</t>
+    <t>Recruitment Officer</t>
+  </si>
+  <si>
+    <t>Personnel Officer</t>
+  </si>
+  <si>
+    <t>General Affair Officer</t>
+  </si>
+  <si>
+    <t>Trainner Officer</t>
+  </si>
+  <si>
+    <t>Human Resource Supervisor</t>
+  </si>
+  <si>
+    <t>Legal Supervisor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,11 +390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +409,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/import/Job_Position_Template.xlsx
+++ b/public/import/Job_Position_Template.xlsx
@@ -1,63 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\busdev-pc\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA1D258-6D51-43AA-9582-651D3CE86BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="22695" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>job_position</t>
   </si>
   <si>
-    <t>Recruitment Officer</t>
-  </si>
-  <si>
-    <t>Personnel Officer</t>
-  </si>
-  <si>
-    <t>General Affair Officer</t>
-  </si>
-  <si>
-    <t>Trainner Officer</t>
-  </si>
-  <si>
-    <t>Human Resource Supervisor</t>
-  </si>
-  <si>
-    <t>Legal Supervisor</t>
+    <t>completemulia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,9 +64,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -390,14 +355,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection activeCell="A3" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -409,31 +377,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/import/Job_Position_Template.xlsx
+++ b/public/import/Job_Position_Template.xlsx
@@ -1,36 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78022A2-81D1-471D-9AD3-4C696CB8CA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="22695" windowHeight="11190"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" forceFullCalc="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$A$419</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Worksheet!$A$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>job_position</t>
   </si>
   <si>
-    <t>completemulia</t>
+    <t>ADM REALME SOLO</t>
+  </si>
+  <si>
+    <t>ADM ORDERAN ORAIMO JKT + QC ORAIMO</t>
+  </si>
+  <si>
+    <t>ADM GUDANG MSI INFINIX RKA+WMD+RMD</t>
+  </si>
+  <si>
+    <t>ADM ORDERAN REALME CRB</t>
+  </si>
+  <si>
+    <t>ADM ORDERAN REALME TASIK</t>
+  </si>
+  <si>
+    <t>ADM ORDERAN REALME SEMARANG</t>
+  </si>
+  <si>
+    <t>ADM QC + PACKING ORDERAN GROSIR + ALOKASI</t>
+  </si>
+  <si>
+    <t>ADM ORDERAN REALME PWT + ALOKASI</t>
+  </si>
+  <si>
+    <t>ADM ORDERAN REALME BANDUNG</t>
+  </si>
+  <si>
+    <t>ADM QC + PACKING ORDERAN GROSIR</t>
+  </si>
+  <si>
+    <t>ADMIN INFINIX</t>
+  </si>
+  <si>
+    <t>ADM INPUT MKLI ALL CABANG</t>
+  </si>
+  <si>
+    <t>DRIVER AUTO EV MKLI</t>
+  </si>
+  <si>
+    <t>DRIVER PURWAKARTA MKLI</t>
+  </si>
+  <si>
+    <t>DRIVER DISTRIBUSI MKLI</t>
+  </si>
+  <si>
+    <t>ADM RISM + KOPERASI</t>
+  </si>
+  <si>
+    <t>DRIVER PWT</t>
+  </si>
+  <si>
+    <t>DRIVER BANDUNG + DRIVER OWNER</t>
+  </si>
+  <si>
+    <t>DRIVER CILEDUG-CIREBON-TEGAL</t>
+  </si>
+  <si>
+    <t>DRIVER BANDUNG</t>
+  </si>
+  <si>
+    <t>DRIVER SEMARANG</t>
+  </si>
+  <si>
+    <t>KURIR BANDUNG</t>
+  </si>
+  <si>
+    <t>KURIR JOGYA</t>
+  </si>
+  <si>
+    <t>ADM TEKNISI MKLI + PENYIAPAN SELIS CRB</t>
+  </si>
+  <si>
+    <t>ADMIN MKLI</t>
+  </si>
+  <si>
+    <t>LEADER ACCESSORIES + ALOKASI BARANG ACC RETAIL</t>
+  </si>
+  <si>
+    <t>KEPGUD + DRIVER JKT</t>
+  </si>
+  <si>
+    <t>KEPGUD + ADM PEMBELIAN + INFINIX RKA + CASH BESAR</t>
+  </si>
+  <si>
+    <t>KEPGUD + ADM ORDERAN REALME KRW</t>
+  </si>
+  <si>
+    <t>KEGPUD + ORDERAN INFINIX MSI&amp;MKLI + CASH BESAR</t>
+  </si>
+  <si>
+    <t>LEADER LOGISTIK CV.TOP + RISM</t>
+  </si>
+  <si>
+    <t>LEADER WAREHOUSE + LOGISTIK MKLI ALL CABANG</t>
+  </si>
+  <si>
+    <t>DRIVER HP</t>
+  </si>
+  <si>
+    <t>DRIVER JOGJA+SOLO</t>
+  </si>
+  <si>
+    <t>KEPGUD + ADM PEMBELIAN + ALOKASI + CASH BESAR</t>
+  </si>
+  <si>
+    <t>KEPGUD + ORDERAN HOPENG</t>
+  </si>
+  <si>
+    <t>KEPGUD + PEMBELIAN + ALOKASI TO + ORDERAN MKLI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,8 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -64,6 +200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,16 +494,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A6"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -373,12 +512,193 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>